--- a/training/results/results_test_scenarios.xlsx
+++ b/training/results/results_test_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jolka\OneDrive\Dokumenty\mgr\Predictive-ML-in-TTRPG-game-design\training\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54EDDC3-DC2E-4612-A2CA-8497C9B5067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD8B9B-19D1-4B41-A70F-05C669D53F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,13 +177,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,7 +491,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -500,46 +500,46 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
@@ -619,7 +619,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4">
@@ -693,7 +693,7 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -767,7 +767,7 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -841,7 +841,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -915,7 +915,7 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8">
@@ -989,7 +989,7 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -1063,7 +1063,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11">
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12">
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13">
@@ -1359,7 +1359,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14">
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15">
@@ -1507,57 +1507,81 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B16">
+        <v>0.7375958371951532</v>
+      </c>
       <c r="C16">
-        <v>0.24</v>
+        <v>0.34642857142857142</v>
+      </c>
+      <c r="E16">
+        <v>0.7375958371951532</v>
       </c>
       <c r="F16">
-        <v>0.24</v>
+        <v>0.34642857142857142</v>
       </c>
       <c r="G16">
-        <v>0.79</v>
+        <v>0.72380952380952379</v>
+      </c>
+      <c r="H16">
+        <v>0.7375958371951532</v>
       </c>
       <c r="I16">
-        <v>0.24</v>
+        <v>0.34642857142857142</v>
       </c>
       <c r="J16">
-        <v>0.79</v>
+        <v>0.72380952380952379</v>
+      </c>
+      <c r="K16">
+        <v>0.7375958371951532</v>
       </c>
       <c r="L16">
-        <v>0.24</v>
+        <v>0.34642857142857142</v>
       </c>
       <c r="M16">
-        <v>0.79</v>
+        <v>0.72380952380952379</v>
+      </c>
+      <c r="N16">
+        <v>0.7375958371951532</v>
       </c>
       <c r="O16">
-        <v>0.24</v>
+        <v>0.34642857142857142</v>
       </c>
       <c r="P16">
-        <v>0.79</v>
+        <v>0.72380952380952379</v>
+      </c>
+      <c r="Q16">
+        <v>0.7375958371951532</v>
       </c>
       <c r="R16">
-        <v>0.24</v>
+        <v>0.34642857142857142</v>
       </c>
       <c r="S16">
-        <v>0.79</v>
+        <v>0.72380952380952379</v>
+      </c>
+      <c r="T16">
+        <v>0.7375958371951532</v>
       </c>
       <c r="U16">
-        <v>0.24</v>
+        <v>0.34642857142857142</v>
       </c>
       <c r="V16">
-        <v>0.79</v>
+        <v>0.72380952380952379</v>
+      </c>
+      <c r="W16">
+        <v>0.7375958371951532</v>
       </c>
       <c r="X16">
-        <v>0.24</v>
+        <v>0.34642857142857142</v>
       </c>
       <c r="Y16">
-        <v>0.79</v>
+        <v>0.72380952380952379</v>
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B17">
@@ -1631,7 +1655,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B18">

--- a/training/results/results_test_scenarios.xlsx
+++ b/training/results/results_test_scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jolka\OneDrive\Dokumenty\mgr\Predictive-ML-in-TTRPG-game-design\training\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD8B9B-19D1-4B41-A70F-05C669D53F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1517E443-27AF-4FF4-ADE3-8A229C2747E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>round type + metrics</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>ordered_random_forest</t>
+  </si>
+  <si>
+    <t>simple_or</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1726,6 +1729,80 @@
       </c>
       <c r="Y18">
         <v>0.76309523809523805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0.79056941504209488</v>
+      </c>
+      <c r="C19">
+        <v>0.29642857142857137</v>
+      </c>
+      <c r="E19">
+        <v>0.79056941504209488</v>
+      </c>
+      <c r="F19">
+        <v>0.29642857142857137</v>
+      </c>
+      <c r="G19">
+        <v>0.77380952380952384</v>
+      </c>
+      <c r="H19">
+        <v>0.79056941504209488</v>
+      </c>
+      <c r="I19">
+        <v>0.29642857142857137</v>
+      </c>
+      <c r="J19">
+        <v>0.77380952380952384</v>
+      </c>
+      <c r="K19">
+        <v>0.79056941504209488</v>
+      </c>
+      <c r="L19">
+        <v>0.29642857142857137</v>
+      </c>
+      <c r="M19">
+        <v>0.77380952380952384</v>
+      </c>
+      <c r="N19">
+        <v>0.79056941504209488</v>
+      </c>
+      <c r="O19">
+        <v>0.29642857142857137</v>
+      </c>
+      <c r="P19">
+        <v>0.77380952380952384</v>
+      </c>
+      <c r="Q19">
+        <v>0.79056941504209488</v>
+      </c>
+      <c r="R19">
+        <v>0.29642857142857137</v>
+      </c>
+      <c r="S19">
+        <v>0.77380952380952384</v>
+      </c>
+      <c r="T19">
+        <v>0.79056941504209488</v>
+      </c>
+      <c r="U19">
+        <v>0.29642857142857137</v>
+      </c>
+      <c r="V19">
+        <v>0.77380952380952384</v>
+      </c>
+      <c r="W19">
+        <v>0.79056941504209488</v>
+      </c>
+      <c r="X19">
+        <v>0.29642857142857137</v>
+      </c>
+      <c r="Y19">
+        <v>0.77380952380952384</v>
       </c>
     </row>
   </sheetData>

--- a/training/results/results_test_scenarios.xlsx
+++ b/training/results/results_test_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jolka\OneDrive\Dokumenty\mgr\Predictive-ML-in-TTRPG-game-design\training\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1517E443-27AF-4FF4-ADE3-8A229C2747E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0549D558-AB92-4B0D-99A8-55AB5A2F0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1736,73 +1736,73 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.79056941504209488</v>
+        <v>0.790569415</v>
       </c>
       <c r="C19">
-        <v>0.29642857142857137</v>
+        <v>0.29642857099999997</v>
       </c>
       <c r="E19">
-        <v>0.79056941504209488</v>
+        <v>0.790569415</v>
       </c>
       <c r="F19">
-        <v>0.29642857142857137</v>
+        <v>0.29642857099999997</v>
       </c>
       <c r="G19">
-        <v>0.77380952380952384</v>
+        <v>0.77380952400000003</v>
       </c>
       <c r="H19">
-        <v>0.79056941504209488</v>
+        <v>0.790569415</v>
       </c>
       <c r="I19">
-        <v>0.29642857142857137</v>
+        <v>0.29642857099999997</v>
       </c>
       <c r="J19">
-        <v>0.77380952380952384</v>
+        <v>0.77380952400000003</v>
       </c>
       <c r="K19">
-        <v>0.79056941504209488</v>
+        <v>0.790569415</v>
       </c>
       <c r="L19">
-        <v>0.29642857142857137</v>
+        <v>0.29642857099999997</v>
       </c>
       <c r="M19">
-        <v>0.77380952380952384</v>
+        <v>0.77380952400000003</v>
       </c>
       <c r="N19">
-        <v>0.79056941504209488</v>
+        <v>0.790569415</v>
       </c>
       <c r="O19">
-        <v>0.29642857142857137</v>
+        <v>0.29642857099999997</v>
       </c>
       <c r="P19">
-        <v>0.77380952380952384</v>
+        <v>0.77380952400000003</v>
       </c>
       <c r="Q19">
-        <v>0.79056941504209488</v>
+        <v>0.790569415</v>
       </c>
       <c r="R19">
-        <v>0.29642857142857137</v>
+        <v>0.29642857099999997</v>
       </c>
       <c r="S19">
-        <v>0.77380952380952384</v>
+        <v>0.77380952400000003</v>
       </c>
       <c r="T19">
-        <v>0.79056941504209488</v>
+        <v>0.790569415</v>
       </c>
       <c r="U19">
-        <v>0.29642857142857137</v>
+        <v>0.29642857099999997</v>
       </c>
       <c r="V19">
-        <v>0.77380952380952384</v>
+        <v>0.77380952400000003</v>
       </c>
       <c r="W19">
-        <v>0.79056941504209488</v>
+        <v>0.790569415</v>
       </c>
       <c r="X19">
-        <v>0.29642857142857137</v>
+        <v>0.29642857099999997</v>
       </c>
       <c r="Y19">
-        <v>0.77380952380952384</v>
+        <v>0.77380952400000003</v>
       </c>
     </row>
   </sheetData>

--- a/training/results/results_test_scenarios.xlsx
+++ b/training/results/results_test_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jolka\OneDrive\Dokumenty\mgr\Predictive-ML-in-TTRPG-game-design\training\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578D98D-EBA4-41A8-AB48-99109A9EBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2060AD-4DC9-4913-BEAF-3D9F3A75306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>round type + metrics</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>simple_or</t>
+  </si>
+  <si>
+    <t>gpor</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A20" sqref="A20:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,6 +1787,80 @@
       </c>
       <c r="Y19">
         <v>0.77380952380952384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0.71083793547374363</v>
+      </c>
+      <c r="C20">
+        <v>0.51271655700060292</v>
+      </c>
+      <c r="E20">
+        <v>0.74242203374527904</v>
+      </c>
+      <c r="F20">
+        <v>0.43690476190476191</v>
+      </c>
+      <c r="G20">
+        <v>0.60595238095238091</v>
+      </c>
+      <c r="H20">
+        <v>0.74242203374527904</v>
+      </c>
+      <c r="I20">
+        <v>0.43690476190476191</v>
+      </c>
+      <c r="J20">
+        <v>0.60595238095238091</v>
+      </c>
+      <c r="K20">
+        <v>0.74081679503742615</v>
+      </c>
+      <c r="L20">
+        <v>0.43928571428571428</v>
+      </c>
+      <c r="M20">
+        <v>0.59642857142857142</v>
+      </c>
+      <c r="N20">
+        <v>0.72702917999996985</v>
+      </c>
+      <c r="O20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P20">
+        <v>0.625</v>
+      </c>
+      <c r="Q20">
+        <v>0.74242203374527904</v>
+      </c>
+      <c r="R20">
+        <v>0.43690476190476191</v>
+      </c>
+      <c r="S20">
+        <v>0.60595238095238091</v>
+      </c>
+      <c r="T20">
+        <v>0.73029674334022143</v>
+      </c>
+      <c r="U20">
+        <v>0.42142857142857137</v>
+      </c>
+      <c r="V20">
+        <v>0.62023809523809526</v>
+      </c>
+      <c r="W20">
+        <v>0.73111135234231561</v>
+      </c>
+      <c r="X20">
+        <v>0.42738095238095242</v>
+      </c>
+      <c r="Y20">
+        <v>0.61309523809523814</v>
       </c>
     </row>
   </sheetData>
